--- a/NEW HR/CABANTING, AIRA PEREY.xlsx
+++ b/NEW HR/CABANTING, AIRA PEREY.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E662BBD7-D444-4EBA-A359-D160C88B4A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>PERIOD</t>
   </si>
@@ -186,9 +187,6 @@
     <t>12/6,7,27/2021</t>
   </si>
   <si>
-    <t>FL(2-0-0)</t>
-  </si>
-  <si>
     <t>SP(3-0-0)</t>
   </si>
   <si>
@@ -215,11 +213,14 @@
   <si>
     <t>SP(1-0-0_</t>
   </si>
+  <si>
+    <t>10/25,26/2021</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -592,6 +593,9 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -624,9 +628,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -907,7 +908,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -950,7 +951,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1014,7 +1015,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1074,7 +1075,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1140,7 +1141,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1203,7 +1204,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1301,7 +1302,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1361,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1425,7 +1426,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1468,7 +1469,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1543,7 +1544,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1729,7 +1730,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1795,7 +1796,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1853,7 +1854,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1919,7 +1920,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1975,7 +1976,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2050,7 +2051,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2093,7 +2094,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2159,7 +2160,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2215,7 +2216,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,25 +2312,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2636,7 +2637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2646,7 +2647,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2654,97 +2655,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A28" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="57">
         <v>44075</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2752,7 +2753,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2765,24 +2766,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2817,7 +2818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2841,7 +2842,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -2863,7 +2864,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>44075</v>
       </c>
@@ -2883,7 +2884,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>44105</v>
       </c>
@@ -2903,7 +2904,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>44136</v>
       </c>
@@ -2923,7 +2924,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>44166</v>
       </c>
@@ -2943,7 +2944,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
         <v>46</v>
       </c>
@@ -2961,7 +2962,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>44197</v>
       </c>
@@ -2981,7 +2982,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>44228</v>
       </c>
@@ -3001,7 +3002,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>44256</v>
       </c>
@@ -3021,7 +3022,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>44287</v>
       </c>
@@ -3041,7 +3042,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>44317</v>
       </c>
@@ -3061,7 +3062,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>44348</v>
       </c>
@@ -3081,7 +3082,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>44378</v>
       </c>
@@ -3101,7 +3102,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>44409</v>
       </c>
@@ -3121,7 +3122,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>44440</v>
       </c>
@@ -3141,15 +3142,19 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44470</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C25" s="42">
         <v>1.25</v>
       </c>
-      <c r="D25" s="39"/>
+      <c r="D25" s="39">
+        <v>2</v>
+      </c>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
       <c r="G25" s="13">
@@ -3159,9 +3164,11 @@
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44501</v>
       </c>
@@ -3181,7 +3188,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44531</v>
       </c>
@@ -3207,15 +3214,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
-      <c r="B28" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="B28" s="20"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="39">
-        <v>2</v>
-      </c>
+      <c r="D28" s="39"/>
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
       <c r="G28" s="13" t="str">
@@ -3227,7 +3230,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="48" t="s">
         <v>47</v>
       </c>
@@ -3245,7 +3248,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>44562</v>
       </c>
@@ -3265,7 +3268,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>44593</v>
       </c>
@@ -3285,7 +3288,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>44621</v>
       </c>
@@ -3305,7 +3308,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>44652</v>
       </c>
@@ -3325,7 +3328,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44682</v>
       </c>
@@ -3345,7 +3348,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>44713</v>
       </c>
@@ -3365,7 +3368,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>44743</v>
       </c>
@@ -3385,7 +3388,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>44774</v>
       </c>
@@ -3405,7 +3408,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>44805</v>
       </c>
@@ -3425,12 +3428,12 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>44835</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="13">
         <v>1.25</v>
@@ -3446,10 +3449,10 @@
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
       <c r="K39" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>44866</v>
       </c>
@@ -3472,13 +3475,13 @@
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
       <c r="K40" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="39">
@@ -3494,15 +3497,15 @@
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
       <c r="K41" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44896</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="13">
         <v>1.25</v>
@@ -3520,12 +3523,12 @@
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
       <c r="K42" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -3541,7 +3544,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44927</v>
       </c>
@@ -3561,12 +3564,12 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44958</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" s="13">
         <v>1.25</v>
@@ -3581,11 +3584,11 @@
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="60">
+      <c r="K45" s="49">
         <v>44970</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44986</v>
       </c>
@@ -3603,7 +3606,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>45017</v>
       </c>
@@ -3621,7 +3624,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>45047</v>
       </c>
@@ -3639,7 +3642,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>45078</v>
       </c>
@@ -3657,7 +3660,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>45108</v>
       </c>
@@ -3675,7 +3678,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>45139</v>
       </c>
@@ -3693,7 +3696,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>45170</v>
       </c>
@@ -3711,7 +3714,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>45200</v>
       </c>
@@ -3729,7 +3732,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>45231</v>
       </c>
@@ -3747,7 +3750,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>45261</v>
       </c>
@@ -3765,7 +3768,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>45292</v>
       </c>
@@ -3783,7 +3786,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>45323</v>
       </c>
@@ -3801,7 +3804,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>45352</v>
       </c>
@@ -3819,7 +3822,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>45383</v>
       </c>
@@ -3837,7 +3840,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>45413</v>
       </c>
@@ -3855,7 +3858,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>45444</v>
       </c>
@@ -3873,7 +3876,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>45474</v>
       </c>
@@ -3891,7 +3894,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>45505</v>
       </c>
@@ -3909,7 +3912,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>45536</v>
       </c>
@@ -3927,7 +3930,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>45566</v>
       </c>
@@ -3945,7 +3948,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>45597</v>
       </c>
@@ -3963,7 +3966,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>45627</v>
       </c>
@@ -3981,7 +3984,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>45658</v>
       </c>
@@ -3999,7 +4002,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>45689</v>
       </c>
@@ -4017,7 +4020,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>45717</v>
       </c>
@@ -4035,7 +4038,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>45748</v>
       </c>
@@ -4053,7 +4056,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>45778</v>
       </c>
@@ -4071,7 +4074,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>45809</v>
       </c>
@@ -4089,7 +4092,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>45839</v>
       </c>
@@ -4107,7 +4110,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>45870</v>
       </c>
@@ -4125,7 +4128,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>45901</v>
       </c>
@@ -4143,7 +4146,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>45931</v>
       </c>
@@ -4161,7 +4164,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>45962</v>
       </c>
@@ -4179,7 +4182,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4195,7 +4198,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4211,7 +4214,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4227,7 +4230,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4243,7 +4246,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4259,7 +4262,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4275,7 +4278,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4291,7 +4294,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4307,7 +4310,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4323,7 +4326,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4339,7 +4342,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4355,7 +4358,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4371,7 +4374,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4387,7 +4390,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4403,7 +4406,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4419,7 +4422,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4435,7 +4438,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4451,7 +4454,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4467,7 +4470,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4483,7 +4486,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4499,7 +4502,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4515,7 +4518,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4531,7 +4534,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4547,7 +4550,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4563,7 +4566,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4579,7 +4582,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4595,7 +4598,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4611,7 +4614,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4627,7 +4630,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4643,7 +4646,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4659,7 +4662,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4675,7 +4678,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4691,7 +4694,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4707,7 +4710,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4723,7 +4726,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4739,7 +4742,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4755,7 +4758,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4771,7 +4774,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4787,7 +4790,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4803,7 +4806,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4819,7 +4822,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4835,7 +4838,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4851,7 +4854,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -4867,7 +4870,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4883,7 +4886,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4899,7 +4902,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4915,7 +4918,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4931,7 +4934,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4947,7 +4950,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4963,7 +4966,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4979,7 +4982,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4995,7 +4998,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5011,7 +5014,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="41"/>
       <c r="B131" s="15"/>
       <c r="C131" s="42"/>
@@ -5042,10 +5045,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5068,41 +5071,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="57" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5131,7 +5134,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -5151,17 +5154,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5175,14 +5178,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5209,7 +5212,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5235,7 +5238,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5261,7 +5264,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5287,7 +5290,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5313,7 +5316,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5339,7 +5342,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5365,7 +5368,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5391,7 +5394,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5411,7 +5414,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5431,7 +5434,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5451,7 +5454,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5472,7 +5475,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5493,7 +5496,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5514,7 +5517,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5535,7 +5538,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5556,7 +5559,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5577,7 +5580,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5598,7 +5601,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5619,7 +5622,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5640,7 +5643,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5661,7 +5664,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5682,7 +5685,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5703,7 +5706,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5724,7 +5727,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5745,7 +5748,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5766,7 +5769,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5787,7 +5790,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5808,7 +5811,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5829,7 +5832,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5850,7 +5853,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5871,7 +5874,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5880,7 +5883,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5889,7 +5892,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5898,7 +5901,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5907,7 +5910,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5916,7 +5919,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5925,7 +5928,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5934,7 +5937,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5943,7 +5946,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5952,7 +5955,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5961,7 +5964,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5970,7 +5973,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5979,7 +5982,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5988,7 +5991,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5997,7 +6000,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6006,7 +6009,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6015,7 +6018,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6024,7 +6027,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6033,7 +6036,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6042,7 +6045,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6051,7 +6054,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6060,7 +6063,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6069,7 +6072,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6078,7 +6081,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6087,7 +6090,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6096,7 +6099,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6105,7 +6108,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6114,7 +6117,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6123,7 +6126,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6132,7 +6135,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/CABANTING, AIRA PEREY.xlsx
+++ b/NEW HR/CABANTING, AIRA PEREY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E662BBD7-D444-4EBA-A359-D160C88B4A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1A4BC4-9B6D-4E10-A302-68C725805F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>PERIOD</t>
   </si>
@@ -211,10 +211,19 @@
     <t>12/1,6,7,27,29</t>
   </si>
   <si>
-    <t>SP(1-0-0_</t>
-  </si>
-  <si>
     <t>10/25,26/2021</t>
+  </si>
+  <si>
+    <t>RADTECH</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>3/27,28/2023</t>
   </si>
 </sst>
 </file>
@@ -2662,9 +2671,9 @@
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A13" activePane="bottomLeft"/>
-      <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
+      <pane ySplit="3576" topLeftCell="A37" activePane="bottomLeft"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2707,7 +2716,9 @@
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="51" t="s">
+        <v>59</v>
+      </c>
       <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -2827,7 +2838,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>22.5</v>
+        <v>23.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2837,7 +2848,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>37.5</v>
+        <v>36.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3165,7 +3176,7 @@
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
       <c r="K25" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -3569,7 +3580,7 @@
         <v>44958</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C45" s="13">
         <v>1.25</v>
@@ -3592,19 +3603,27 @@
       <c r="A46" s="40">
         <v>44986</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="13"/>
+      <c r="B46" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D46" s="39"/>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H46" s="39"/>
+      <c r="G46" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H46" s="39">
+        <v>2</v>
+      </c>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="20"/>
+      <c r="K46" s="20" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
@@ -5044,7 +5063,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>

--- a/NEW HR/CABANTING, AIRA PEREY.xlsx
+++ b/NEW HR/CABANTING, AIRA PEREY.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1A4BC4-9B6D-4E10-A302-68C725805F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>PERIOD</t>
   </si>
@@ -229,7 +228,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -917,7 +916,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -960,7 +959,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1024,7 +1023,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1084,7 +1083,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1150,7 +1149,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1213,7 +1212,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1311,7 +1310,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1370,7 +1369,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1435,7 +1434,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1478,7 +1477,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1553,7 +1552,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1739,7 +1738,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1805,7 +1804,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1863,7 +1862,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1929,7 +1928,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1985,7 +1984,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2060,7 +2059,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2103,7 +2102,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,7 +2168,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2225,7 +2224,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2321,25 +2320,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2646,7 +2645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2656,7 +2655,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2664,34 +2663,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A37" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3570" topLeftCell="A37"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2712,7 +2711,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2734,7 +2733,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2756,7 +2755,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2764,7 +2763,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2777,7 +2776,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2794,7 +2793,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2829,7 +2828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2838,7 +2837,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>23.75</v>
+        <v>26.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2848,12 +2847,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>36.75</v>
+        <v>39.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -2875,7 +2874,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>44075</v>
       </c>
@@ -2895,7 +2894,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>44105</v>
       </c>
@@ -2915,7 +2914,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>44136</v>
       </c>
@@ -2935,7 +2934,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>44166</v>
       </c>
@@ -2955,7 +2954,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>46</v>
       </c>
@@ -2973,7 +2972,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>44197</v>
       </c>
@@ -2993,7 +2992,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>44228</v>
       </c>
@@ -3013,7 +3012,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>44256</v>
       </c>
@@ -3033,7 +3032,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>44287</v>
       </c>
@@ -3053,7 +3052,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>44317</v>
       </c>
@@ -3073,7 +3072,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>44348</v>
       </c>
@@ -3093,7 +3092,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>44378</v>
       </c>
@@ -3113,7 +3112,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>44409</v>
       </c>
@@ -3133,7 +3132,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>44440</v>
       </c>
@@ -3153,7 +3152,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44470</v>
       </c>
@@ -3179,7 +3178,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44501</v>
       </c>
@@ -3199,7 +3198,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44531</v>
       </c>
@@ -3225,7 +3224,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -3241,7 +3240,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
         <v>47</v>
       </c>
@@ -3259,7 +3258,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>44562</v>
       </c>
@@ -3279,7 +3278,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>44593</v>
       </c>
@@ -3299,7 +3298,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>44621</v>
       </c>
@@ -3319,7 +3318,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>44652</v>
       </c>
@@ -3339,7 +3338,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44682</v>
       </c>
@@ -3359,7 +3358,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>44713</v>
       </c>
@@ -3379,7 +3378,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>44743</v>
       </c>
@@ -3399,7 +3398,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>44774</v>
       </c>
@@ -3419,7 +3418,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44805</v>
       </c>
@@ -3439,7 +3438,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>44835</v>
       </c>
@@ -3463,7 +3462,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>44866</v>
       </c>
@@ -3489,7 +3488,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>53</v>
@@ -3511,7 +3510,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44896</v>
       </c>
@@ -3537,7 +3536,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
         <v>55</v>
       </c>
@@ -3555,7 +3554,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44927</v>
       </c>
@@ -3575,7 +3574,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44958</v>
       </c>
@@ -3599,7 +3598,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44986</v>
       </c>
@@ -3625,47 +3624,53 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>45017</v>
       </c>
       <c r="B47" s="20"/>
-      <c r="C47" s="13"/>
+      <c r="C47" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D47" s="39"/>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
-      <c r="G47" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G47" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H47" s="39"/>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>45047</v>
       </c>
       <c r="B48" s="20"/>
-      <c r="C48" s="13"/>
+      <c r="C48" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D48" s="39"/>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G48" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H48" s="39"/>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>45078</v>
       </c>
-      <c r="B49" s="20"/>
+      <c r="B49" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
       <c r="E49" s="9"/>
@@ -3677,9 +3682,11 @@
       <c r="H49" s="39"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="20"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K49" s="49">
+        <v>45102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>45108</v>
       </c>
@@ -3697,7 +3704,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>45139</v>
       </c>
@@ -3715,7 +3722,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>45170</v>
       </c>
@@ -3733,7 +3740,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>45200</v>
       </c>
@@ -3751,7 +3758,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>45231</v>
       </c>
@@ -3769,7 +3776,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>45261</v>
       </c>
@@ -3787,7 +3794,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>45292</v>
       </c>
@@ -3805,7 +3812,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>45323</v>
       </c>
@@ -3823,7 +3830,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>45352</v>
       </c>
@@ -3841,7 +3848,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>45383</v>
       </c>
@@ -3859,7 +3866,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>45413</v>
       </c>
@@ -3877,7 +3884,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>45444</v>
       </c>
@@ -3895,7 +3902,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>45474</v>
       </c>
@@ -3913,7 +3920,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>45505</v>
       </c>
@@ -3931,7 +3938,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>45536</v>
       </c>
@@ -3949,7 +3956,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>45566</v>
       </c>
@@ -3967,7 +3974,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>45597</v>
       </c>
@@ -3985,7 +3992,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>45627</v>
       </c>
@@ -4003,7 +4010,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>45658</v>
       </c>
@@ -4021,7 +4028,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>45689</v>
       </c>
@@ -4039,7 +4046,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>45717</v>
       </c>
@@ -4057,7 +4064,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>45748</v>
       </c>
@@ -4075,7 +4082,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>45778</v>
       </c>
@@ -4093,7 +4100,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>45809</v>
       </c>
@@ -4111,7 +4118,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>45839</v>
       </c>
@@ -4129,7 +4136,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>45870</v>
       </c>
@@ -4147,7 +4154,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>45901</v>
       </c>
@@ -4165,7 +4172,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>45931</v>
       </c>
@@ -4183,7 +4190,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45962</v>
       </c>
@@ -4201,7 +4208,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4217,7 +4224,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4233,7 +4240,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4249,7 +4256,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4265,7 +4272,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4281,7 +4288,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4297,7 +4304,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4313,7 +4320,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4329,7 +4336,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4345,7 +4352,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4361,7 +4368,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4377,7 +4384,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4393,7 +4400,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4409,7 +4416,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4425,7 +4432,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4441,7 +4448,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4457,7 +4464,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4473,7 +4480,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4489,7 +4496,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4505,7 +4512,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4521,7 +4528,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4537,7 +4544,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4553,7 +4560,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4569,7 +4576,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4585,7 +4592,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4601,7 +4608,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4617,7 +4624,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4633,7 +4640,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4649,7 +4656,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4665,7 +4672,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4681,7 +4688,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4697,7 +4704,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4713,7 +4720,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4729,7 +4736,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4745,7 +4752,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4761,7 +4768,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4777,7 +4784,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4793,7 +4800,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4809,7 +4816,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4825,7 +4832,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4841,7 +4848,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4857,7 +4864,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4873,7 +4880,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -4889,7 +4896,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4905,7 +4912,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4921,7 +4928,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4937,7 +4944,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4953,7 +4960,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4969,7 +4976,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4985,7 +4992,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5001,7 +5008,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5017,7 +5024,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5033,7 +5040,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="41"/>
       <c r="B131" s="15"/>
       <c r="C131" s="42"/>
@@ -5064,10 +5071,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5090,28 +5097,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5124,7 +5131,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5153,7 +5160,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -5173,17 +5180,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5204,7 +5211,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5231,7 +5238,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5257,7 +5264,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5283,7 +5290,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5309,7 +5316,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5335,7 +5342,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5361,7 +5368,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5387,7 +5394,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5413,7 +5420,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5433,7 +5440,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5453,7 +5460,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5473,7 +5480,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5494,7 +5501,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5515,7 +5522,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5536,7 +5543,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5557,7 +5564,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5578,7 +5585,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5599,7 +5606,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5620,7 +5627,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5641,7 +5648,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5662,7 +5669,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5683,7 +5690,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5704,7 +5711,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5725,7 +5732,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5746,7 +5753,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5767,7 +5774,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5788,7 +5795,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5809,7 +5816,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5830,7 +5837,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5851,7 +5858,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5872,7 +5879,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5893,7 +5900,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5902,7 +5909,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5911,7 +5918,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5920,7 +5927,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5929,7 +5936,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5938,7 +5945,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5947,7 +5954,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5956,7 +5963,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5965,7 +5972,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5974,7 +5981,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5983,7 +5990,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5992,7 +5999,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6001,7 +6008,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6010,7 +6017,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6019,7 +6026,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6028,7 +6035,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6037,7 +6044,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6046,7 +6053,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6055,7 +6062,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6064,7 +6071,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6073,7 +6080,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6082,7 +6089,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6091,7 +6098,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6100,7 +6107,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6109,7 +6116,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6118,7 +6125,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6127,7 +6134,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6136,7 +6143,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6145,7 +6152,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6154,7 +6161,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/CABANTING, AIRA PEREY.xlsx
+++ b/NEW HR/CABANTING, AIRA PEREY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>PERIOD</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>3/27,28/2023</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -916,7 +919,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -959,7 +962,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1023,7 +1026,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1083,7 +1086,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1149,7 +1152,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1212,7 +1215,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1310,7 +1313,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1372,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1434,7 +1437,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1477,7 +1480,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,7 +1555,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1741,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1804,7 +1807,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1862,7 +1865,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1928,7 +1931,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1984,7 +1987,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2059,7 +2062,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2102,7 +2105,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2168,7 +2171,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2224,7 +2227,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2669,10 +2672,10 @@
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A40" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
+      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2837,7 +2840,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>26.25</v>
+        <v>27.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2847,7 +2850,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>39.25</v>
+        <v>39.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3671,13 +3674,15 @@
       <c r="B49" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="13"/>
+      <c r="C49" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D49" s="39"/>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G49" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H49" s="39"/>
       <c r="I49" s="9"/>
@@ -3690,7 +3695,9 @@
       <c r="A50" s="40">
         <v>45108</v>
       </c>
-      <c r="B50" s="20"/>
+      <c r="B50" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C50" s="13"/>
       <c r="D50" s="39"/>
       <c r="E50" s="9"/>
@@ -3699,10 +3706,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H50" s="39"/>
+      <c r="H50" s="39">
+        <v>1</v>
+      </c>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="20"/>
+      <c r="K50" s="49">
+        <v>45112</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">

--- a/NEW HR/CABANTING, AIRA PEREY.xlsx
+++ b/NEW HR/CABANTING, AIRA PEREY.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -226,6 +226,15 @@
   </si>
   <si>
     <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>9/7,14/2023</t>
+  </si>
+  <si>
+    <t>9/21,28/2023</t>
   </si>
 </sst>
 </file>
@@ -919,7 +928,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,7 +971,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1026,7 +1035,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1086,7 +1095,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1152,7 +1161,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1215,7 +1224,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1313,7 +1322,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1372,7 +1381,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1446,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1480,7 +1489,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1555,7 +1564,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1741,7 +1750,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1807,7 +1816,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,7 +1874,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +1940,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1987,7 +1996,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,7 +2071,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2105,7 +2114,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2171,7 +2180,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2227,7 +2236,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,7 +2332,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2670,12 +2679,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K131"/>
+  <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A40" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2840,7 +2849,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.5</v>
+        <v>25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2850,7 +2859,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>39.5</v>
+        <v>42</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3698,13 +3707,15 @@
       <c r="B50" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="13"/>
+      <c r="C50" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D50" s="39"/>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G50" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H50" s="39">
         <v>1</v>
@@ -3719,27 +3730,39 @@
       <c r="A51" s="40">
         <v>45139</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="39"/>
+      <c r="B51" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D51" s="39">
+        <v>1</v>
+      </c>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G51" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H51" s="39"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="20"/>
+      <c r="K51" s="49">
+        <v>45156</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>45170</v>
       </c>
-      <c r="B52" s="20"/>
+      <c r="B52" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="39"/>
+      <c r="D52" s="39">
+        <v>2</v>
+      </c>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
       <c r="G52" s="13" t="str">
@@ -3749,15 +3772,19 @@
       <c r="H52" s="39"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20"/>
+      <c r="K52" s="20" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B53" s="20"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C53" s="13"/>
-      <c r="D53" s="39"/>
+      <c r="D53" s="39">
+        <v>2</v>
+      </c>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
       <c r="G53" s="13" t="str">
@@ -3767,11 +3794,13 @@
       <c r="H53" s="39"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20"/>
+      <c r="K53" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -3789,7 +3818,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -3807,7 +3836,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -3825,7 +3854,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -3843,7 +3872,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -3861,7 +3890,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -3879,7 +3908,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -3897,7 +3926,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -3915,7 +3944,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -3933,7 +3962,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -3951,7 +3980,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -3969,7 +3998,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -3987,7 +4016,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4005,7 +4034,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4023,7 +4052,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4041,7 +4070,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4059,7 +4088,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4077,7 +4106,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4095,7 +4124,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4113,7 +4142,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4131,7 +4160,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4149,7 +4178,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4167,7 +4196,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4185,7 +4214,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4203,7 +4232,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4220,7 +4249,9 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45962</v>
+      </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
       <c r="D79" s="39"/>
@@ -5052,20 +5083,36 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="43"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="43"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="15"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="41"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="43"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
